--- a/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/query/QUERY_100set_1000times.xlsx
+++ b/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/query/QUERY_100set_1000times.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>QUERY</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1001"/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,19 +366,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" t="e">
+        <f ca="1">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="e">
-        <f ca="1">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A2:A65" ca="1" si="0">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="e">
-        <f t="shared" ref="A3:A66" ca="1" si="0">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -760,13 +757,13 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="A66:A129" ca="1" si="1">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="e">
-        <f t="shared" ref="A67:A130" ca="1" si="1">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1144,13 +1141,13 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="A130:A193" ca="1" si="2">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="e">
-        <f t="shared" ref="A131:A194" ca="1" si="2">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1528,13 +1525,13 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="A194:A257" ca="1" si="3">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="e">
-        <f t="shared" ref="A195:A258" ca="1" si="3">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1912,13 +1909,13 @@
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="A258:A321" ca="1" si="4">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="e">
-        <f t="shared" ref="A259:A322" ca="1" si="4">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -2296,13 +2293,13 @@
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="A322:A385" ca="1" si="5">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="e">
-        <f t="shared" ref="A323:A386" ca="1" si="5">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -2680,13 +2677,13 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="A386:A449" ca="1" si="6">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="e">
-        <f t="shared" ref="A387:A450" ca="1" si="6">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -3064,13 +3061,13 @@
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="A450:A513" ca="1" si="7">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="e">
-        <f t="shared" ref="A451:A514" ca="1" si="7">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -3448,13 +3445,13 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="A514:A577" ca="1" si="8">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="e">
-        <f t="shared" ref="A515:A578" ca="1" si="8">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -3832,13 +3829,13 @@
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="A578:A641" ca="1" si="9">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="e">
-        <f t="shared" ref="A579:A642" ca="1" si="9">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4216,13 +4213,13 @@
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="A642:A705" ca="1" si="10">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" t="e">
-        <f t="shared" ref="A643:A706" ca="1" si="10">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4600,13 +4597,13 @@
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="A706:A769" ca="1" si="11">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" t="e">
-        <f t="shared" ref="A707:A770" ca="1" si="11">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4984,13 +4981,13 @@
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="A770:A833" ca="1" si="12">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" t="e">
-        <f t="shared" ref="A771:A834" ca="1" si="12">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -5368,13 +5365,13 @@
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" t="e">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="A834:A897" ca="1" si="13">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" t="e">
-        <f t="shared" ref="A835:A898" ca="1" si="13">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="13"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -5752,13 +5749,13 @@
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" t="e">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="A898:A961" ca="1" si="14">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" t="e">
-        <f t="shared" ref="A899:A962" ca="1" si="14">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -6136,13 +6133,13 @@
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" t="e">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="A962:A1000" ca="1" si="15">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" t="e">
-        <f t="shared" ref="A963:A1001" ca="1" si="15">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -6364,12 +6361,6 @@
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1001" t="e">
         <f t="shared" ca="1" si="15"/>
         <v>#NAME?</v>
       </c>

--- a/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/query/QUERY_100set_1000times.xlsx
+++ b/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/query/QUERY_100set_1000times.xlsx
@@ -4,17 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,24 +352,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="e">
-        <f ca="1">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f ca="1">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="e">
-        <f t="shared" ref="A2:A65" ca="1" si="0">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A2:A65" ca="1" si="0">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -757,7 +751,7 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="e">
-        <f t="shared" ref="A66:A129" ca="1" si="1">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A66:A129" ca="1" si="1">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1141,7 +1135,7 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="e">
-        <f t="shared" ref="A130:A193" ca="1" si="2">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A130:A193" ca="1" si="2">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1525,7 +1519,7 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="e">
-        <f t="shared" ref="A194:A257" ca="1" si="3">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A194:A257" ca="1" si="3">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1909,7 +1903,7 @@
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="e">
-        <f t="shared" ref="A258:A321" ca="1" si="4">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A258:A321" ca="1" si="4">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -2293,7 +2287,7 @@
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="e">
-        <f t="shared" ref="A322:A385" ca="1" si="5">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A322:A385" ca="1" si="5">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -2677,7 +2671,7 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="e">
-        <f t="shared" ref="A386:A449" ca="1" si="6">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A386:A449" ca="1" si="6">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -3061,7 +3055,7 @@
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="e">
-        <f t="shared" ref="A450:A513" ca="1" si="7">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A450:A513" ca="1" si="7">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -3445,7 +3439,7 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="e">
-        <f t="shared" ref="A514:A577" ca="1" si="8">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A514:A577" ca="1" si="8">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -3829,7 +3823,7 @@
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="e">
-        <f t="shared" ref="A578:A641" ca="1" si="9">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A578:A641" ca="1" si="9">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4213,7 +4207,7 @@
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" t="e">
-        <f t="shared" ref="A642:A705" ca="1" si="10">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A642:A705" ca="1" si="10">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4597,7 +4591,7 @@
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" t="e">
-        <f t="shared" ref="A706:A769" ca="1" si="11">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A706:A769" ca="1" si="11">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4981,7 +4975,7 @@
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" t="e">
-        <f t="shared" ref="A770:A833" ca="1" si="12">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A770:A833" ca="1" si="12">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -5365,7 +5359,7 @@
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" t="e">
-        <f t="shared" ref="A834:A897" ca="1" si="13">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A834:A897" ca="1" si="13">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -5749,7 +5743,7 @@
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" t="e">
-        <f t="shared" ref="A898:A961" ca="1" si="14">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A898:A961" ca="1" si="14">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -6133,7 +6127,7 @@
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" t="e">
-        <f t="shared" ref="A962:A1000" ca="1" si="15">QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local")</f>
+        <f t="shared" ref="A962:A1000" ca="1" si="15">INDEX(QUERY("ShuffledDataSet100","ShuffledDataSet100_1000_local"),1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
